--- a/Experiment/Analysis.xlsx
+++ b/Experiment/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1BEBEA-E2A9-4134-AD9A-2B2B24623C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71560D65-AE7D-424B-B6AC-02E8550DEBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{247A1E3C-87D8-467C-B97F-715594754AA3}"/>
+    <workbookView xWindow="1845" yWindow="3870" windowWidth="36000" windowHeight="14280" xr2:uid="{247A1E3C-87D8-467C-B97F-715594754AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,14 +672,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
